--- a/10-razpredelnice/excel-uvodne/kolokviji.xlsx
+++ b/10-razpredelnice/excel-uvodne/kolokviji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emapt\Desktop\RP\GIT\racunalniski-praktikum\10-razpredelnice\excel-uvodne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FA84A4C-8D5B-4D08-A8BE-221B234D7A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507D0659-6A46-4762-81E2-3F09F267F8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA34C321-C9C0-40E1-B1DD-B7D79C67A1C8}"/>
   </bookViews>
@@ -288,14 +288,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -311,21 +310,6 @@
         <b/>
         <i val="0"/>
         <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -375,8 +359,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9D533FC-78FA-4B52-AE2A-D47967DBB6BA}" name="kolokviji" displayName="kolokviji" ref="A1:I32" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="A1:I31" xr:uid="{E9D533FC-78FA-4B52-AE2A-D47967DBB6BA}"/>
   <tableColumns count="9">
-    <tableColumn id="2" xr3:uid="{7066B6C2-628E-45F2-A4FC-6471E4DB4F75}" uniqueName="2" name="Ime" queryTableFieldId="2" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{D601D17C-EDBC-430F-B999-5DE53C4FC2CF}" uniqueName="1" name="Priimek" totalsRowLabel="Povprečje" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{7066B6C2-628E-45F2-A4FC-6471E4DB4F75}" uniqueName="2" name="Ime" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{D601D17C-EDBC-430F-B999-5DE53C4FC2CF}" uniqueName="1" name="Priimek" totalsRowLabel="Povprečje" queryTableFieldId="1" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{74850AA4-48EC-4F67-AD6D-822C05969B35}" uniqueName="3" name="K1" totalsRowFunction="custom" queryTableFieldId="3">
       <totalsRowFormula>ROUND(AVERAGE(kolokviji[K1]),2)</totalsRowFormula>
     </tableColumn>
@@ -392,10 +376,10 @@
     <tableColumn id="7" xr3:uid="{B9A8EE8B-97A5-415F-AEB9-E09EA8F6404C}" uniqueName="7" name="udeležba" totalsRowFunction="custom" queryTableFieldId="7">
       <totalsRowFormula>ROUND(AVERAGE(kolokviji[udeležba]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C55C804F-01ED-43C8-A5F5-6F2517E7ECF1}" uniqueName="8" name="skupaj" totalsRowFunction="custom" queryTableFieldId="8" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{C55C804F-01ED-43C8-A5F5-6F2517E7ECF1}" uniqueName="8" name="skupaj" totalsRowFunction="custom" queryTableFieldId="8" dataDxfId="4">
       <totalsRowFormula>ROUND(AVERAGE(kolokviji[skupaj]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{098A8475-FCCE-4841-B954-514617DAC6FF}" uniqueName="9" name="ocena" totalsRowFunction="count" queryTableFieldId="9" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{098A8475-FCCE-4841-B954-514617DAC6FF}" uniqueName="9" name="ocena" totalsRowFunction="count" queryTableFieldId="9" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -720,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A72A18A-98A0-4100-9292-7961252CA324}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,10 +750,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>64</v>
       </c>
       <c r="C2">
@@ -787,20 +771,20 @@
       <c r="G2">
         <v>50</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>41</v>
       </c>
-      <c r="I2" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
+      <c r="I2">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>61</v>
       </c>
       <c r="C3">
@@ -818,20 +802,20 @@
       <c r="G3">
         <v>100</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>62</v>
       </c>
-      <c r="I3" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
+      <c r="I3">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>33</v>
       </c>
       <c r="C4">
@@ -849,20 +833,20 @@
       <c r="G4">
         <v>99</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>68</v>
       </c>
-      <c r="I4" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
-        <v>8</v>
+      <c r="I4">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>65</v>
       </c>
       <c r="C5">
@@ -880,20 +864,20 @@
       <c r="G5">
         <v>95</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>80</v>
       </c>
-      <c r="I5" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
+      <c r="I5">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6">
@@ -911,20 +895,20 @@
       <c r="G6">
         <v>56</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>53</v>
       </c>
-      <c r="I6" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
+      <c r="I6">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7">
@@ -942,20 +926,20 @@
       <c r="G7">
         <v>79</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>64</v>
       </c>
-      <c r="I7" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
+      <c r="I7">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>36</v>
       </c>
       <c r="C8">
@@ -973,20 +957,20 @@
       <c r="G8">
         <v>100</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>76</v>
       </c>
-      <c r="I8" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
-        <v>9</v>
+      <c r="I8">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>38</v>
       </c>
       <c r="C9">
@@ -1004,20 +988,20 @@
       <c r="G9">
         <v>100</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>100</v>
       </c>
-      <c r="I9" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10,0)</f>
+      <c r="I9">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10">
@@ -1035,20 +1019,20 @@
       <c r="G10">
         <v>90</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>67</v>
       </c>
-      <c r="I10" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
-        <v>8</v>
+      <c r="I10">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>40</v>
       </c>
       <c r="C11">
@@ -1066,20 +1050,20 @@
       <c r="G11">
         <v>99</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>54</v>
       </c>
-      <c r="I11" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
+      <c r="I11">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12">
@@ -1097,20 +1081,20 @@
       <c r="G12">
         <v>62</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>58</v>
       </c>
-      <c r="I12" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
-        <v>7</v>
+      <c r="I12">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13">
@@ -1128,20 +1112,20 @@
       <c r="G13">
         <v>92</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>64</v>
       </c>
-      <c r="I13" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
+      <c r="I13">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>42</v>
       </c>
       <c r="C14">
@@ -1159,20 +1143,20 @@
       <c r="G14">
         <v>100</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>81</v>
       </c>
-      <c r="I14" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
+      <c r="I14">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>44</v>
       </c>
       <c r="C15">
@@ -1190,20 +1174,20 @@
       <c r="G15">
         <v>95</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>90</v>
       </c>
-      <c r="I15" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,J150)</f>
+      <c r="I15">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16">
@@ -1221,20 +1205,20 @@
       <c r="G16">
         <v>85</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>78</v>
       </c>
-      <c r="I16" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
-        <v>9</v>
+      <c r="I16">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17">
@@ -1252,20 +1236,20 @@
       <c r="G17">
         <v>98</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>73</v>
       </c>
-      <c r="I17" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
+      <c r="I17">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>46</v>
       </c>
       <c r="C18">
@@ -1283,20 +1267,20 @@
       <c r="G18">
         <v>68</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>64</v>
       </c>
-      <c r="I18" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
+      <c r="I18">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19">
@@ -1314,20 +1298,20 @@
       <c r="G19">
         <v>80</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>71</v>
       </c>
-      <c r="I19" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
+      <c r="I19">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>23</v>
       </c>
       <c r="C20">
@@ -1345,20 +1329,20 @@
       <c r="G20">
         <v>70</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>41</v>
       </c>
-      <c r="I20" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
+      <c r="I20">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>48</v>
       </c>
       <c r="C21">
@@ -1376,20 +1360,20 @@
       <c r="G21">
         <v>53</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>58</v>
       </c>
-      <c r="I21" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
-        <v>7</v>
+      <c r="I21">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>49</v>
       </c>
       <c r="C22">
@@ -1407,20 +1391,20 @@
       <c r="G22">
         <v>65</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>59</v>
       </c>
-      <c r="I22" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
-        <v>7</v>
+      <c r="I22">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>59</v>
       </c>
       <c r="C23">
@@ -1438,20 +1422,20 @@
       <c r="G23">
         <v>96</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>51</v>
       </c>
-      <c r="I23" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
+      <c r="I23">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>51</v>
       </c>
       <c r="C24">
@@ -1469,20 +1453,20 @@
       <c r="G24">
         <v>91</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>82</v>
       </c>
-      <c r="I24" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
+      <c r="I24">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>53</v>
       </c>
       <c r="C25">
@@ -1500,20 +1484,20 @@
       <c r="G25">
         <v>100</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>84</v>
       </c>
-      <c r="I25" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
+      <c r="I25">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>55</v>
       </c>
       <c r="C26">
@@ -1531,20 +1515,20 @@
       <c r="G26">
         <v>67</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>61</v>
       </c>
-      <c r="I26" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
+      <c r="I26">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>57</v>
       </c>
       <c r="C27">
@@ -1562,20 +1546,20 @@
       <c r="G27">
         <v>87</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>61</v>
       </c>
-      <c r="I27" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
+      <c r="I27">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>25</v>
       </c>
       <c r="C28">
@@ -1593,20 +1577,20 @@
       <c r="G28">
         <v>100</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>66</v>
       </c>
-      <c r="I28" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
-        <v>8</v>
+      <c r="I28">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
@@ -1624,20 +1608,20 @@
       <c r="G29">
         <v>100</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>80</v>
       </c>
-      <c r="I29" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
+      <c r="I29">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>27</v>
       </c>
       <c r="C30">
@@ -1655,20 +1639,20 @@
       <c r="G30">
         <v>57</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>72</v>
       </c>
-      <c r="I30" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
+      <c r="I30">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31">
@@ -1686,13 +1670,13 @@
       <c r="G31">
         <v>99</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31">
         <f>ROUND(0.25*(kolokviji[[#This Row],[K1]]+kolokviji[[#This Row],[K2]]+kolokviji[[#This Row],[K3]])+0.15*kolokviji[[#This Row],[DN]]+0.1*kolokviji[[#This Row],[udeležba]],0)</f>
         <v>69</v>
       </c>
-      <c r="I31" s="1">
-        <f>ROUND(kolokviji[[#This Row],[skupaj]]/10+1,0)</f>
-        <v>8</v>
+      <c r="I31">
+        <f>MIN(TRUNC(kolokviji[[#This Row],[skupaj]]/10)+1,10)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1730,13 +1714,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I31">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
